--- a/Code/Results/Cases/Case_2_107/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_107/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.866275586442498</v>
+        <v>0.4667726049514727</v>
       </c>
       <c r="C2">
-        <v>0.08726715682789177</v>
+        <v>0.1115831045428308</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.05046959729978973</v>
+        <v>0.1118171829289238</v>
       </c>
       <c r="F2">
-        <v>1.45952168114772</v>
+        <v>0.4443680307746263</v>
       </c>
       <c r="G2">
-        <v>0.0008188528718262707</v>
+        <v>0.00246826798140105</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.3646076935862688</v>
+        <v>0.8886284222073222</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.7426316165155242</v>
+        <v>0.2659201194302483</v>
       </c>
       <c r="L2">
-        <v>0.158608324713029</v>
+        <v>0.2092227225229806</v>
       </c>
       <c r="M2">
-        <v>0.1957309638706448</v>
+        <v>0.1487714340921897</v>
       </c>
       <c r="N2">
-        <v>0.9467228679452422</v>
+        <v>1.905393724496388</v>
       </c>
       <c r="O2">
-        <v>1.463816654473789</v>
+        <v>3.38450055242663</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7543579060036052</v>
+        <v>0.4350089752580857</v>
       </c>
       <c r="C3">
-        <v>0.08380382864694269</v>
+        <v>0.1104118661123081</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.04925187487789806</v>
+        <v>0.1121253597160941</v>
       </c>
       <c r="F3">
-        <v>1.26082040731464</v>
+        <v>0.387822817061874</v>
       </c>
       <c r="G3">
-        <v>0.0008219037972312285</v>
+        <v>0.002470289708980686</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.3727897498183452</v>
+        <v>0.8963716224442386</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.6462533436909581</v>
+        <v>0.2368935610889338</v>
       </c>
       <c r="L3">
-        <v>0.1445787026365224</v>
+        <v>0.2066062862443445</v>
       </c>
       <c r="M3">
-        <v>0.1719076994438247</v>
+        <v>0.1425545601854736</v>
       </c>
       <c r="N3">
-        <v>0.9854683771040289</v>
+        <v>1.922617475217256</v>
       </c>
       <c r="O3">
-        <v>1.476815160886218</v>
+        <v>3.410770926026757</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.685798942302398</v>
+        <v>0.4156283381067283</v>
       </c>
       <c r="C4">
-        <v>0.08167576175702607</v>
+        <v>0.1096859893203046</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.04856514671235246</v>
+        <v>0.1123572962055626</v>
       </c>
       <c r="F4">
-        <v>1.139972825279813</v>
+        <v>0.3531389305168915</v>
       </c>
       <c r="G4">
-        <v>0.0008238414043275551</v>
+        <v>0.002471597993802521</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.3784482091751364</v>
+        <v>0.9015012131756563</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.5871033237900321</v>
+        <v>0.2190762765505951</v>
       </c>
       <c r="L4">
-        <v>0.1361204602714778</v>
+        <v>0.2050987868208054</v>
       </c>
       <c r="M4">
-        <v>0.1573645872582112</v>
+        <v>0.1387949932688777</v>
       </c>
       <c r="N4">
-        <v>1.010308552022799</v>
+        <v>1.933761047539985</v>
       </c>
       <c r="O4">
-        <v>1.487535711636156</v>
+        <v>3.428468009725052</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.657892792722464</v>
+        <v>0.407761959234449</v>
       </c>
       <c r="C5">
-        <v>0.08080790214169298</v>
+        <v>0.1093885108958403</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.04830020638815924</v>
+        <v>0.1124625768779364</v>
       </c>
       <c r="F5">
-        <v>1.090973950927975</v>
+        <v>0.3390132514313251</v>
       </c>
       <c r="G5">
-        <v>0.0008246473966518844</v>
+        <v>0.00247214801053246</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.3809091131151128</v>
+        <v>0.9036859761152023</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.5629994566761667</v>
+        <v>0.2118173505133001</v>
       </c>
       <c r="L5">
-        <v>0.1327107610124543</v>
+        <v>0.204509446300122</v>
       </c>
       <c r="M5">
-        <v>0.1514572796239122</v>
+        <v>0.137277558966133</v>
       </c>
       <c r="N5">
-        <v>1.020690280469481</v>
+        <v>1.938445086732903</v>
       </c>
       <c r="O5">
-        <v>1.49257014517211</v>
+        <v>3.436073944384631</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6532607220171371</v>
+        <v>0.4064576670137683</v>
       </c>
       <c r="C6">
-        <v>0.08066374788315755</v>
+        <v>0.1093390139411667</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.04825710157333063</v>
+        <v>0.1124807095097449</v>
       </c>
       <c r="F6">
-        <v>1.082851457025441</v>
+        <v>0.336668177824194</v>
       </c>
       <c r="G6">
-        <v>0.0008247822282554107</v>
+        <v>0.002472240361792266</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.3813269785307298</v>
+        <v>0.9040544583428556</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.558996860935693</v>
+        <v>0.2106121316206782</v>
       </c>
       <c r="L6">
-        <v>0.1321467636081906</v>
+        <v>0.2044130977775112</v>
       </c>
       <c r="M6">
-        <v>0.1504774712403751</v>
+        <v>0.1370264770060494</v>
       </c>
       <c r="N6">
-        <v>1.022429670254784</v>
+        <v>1.939231503800967</v>
       </c>
       <c r="O6">
-        <v>1.493445659136739</v>
+        <v>3.437360720498503</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6854224698893177</v>
+        <v>0.415522121460242</v>
       </c>
       <c r="C7">
-        <v>0.0816640604820762</v>
+        <v>0.1096819841946512</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.04856151382185914</v>
+        <v>0.112358672440088</v>
       </c>
       <c r="F7">
-        <v>1.139311062524612</v>
+        <v>0.3529483938344953</v>
       </c>
       <c r="G7">
-        <v>0.0008238522075225452</v>
+        <v>0.002471605343457705</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.3784807759294537</v>
+        <v>0.9015302953013737</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.5867782578860243</v>
+        <v>0.2189783723788281</v>
       </c>
       <c r="L7">
-        <v>0.1360743283872097</v>
+        <v>0.2050907375247846</v>
       </c>
       <c r="M7">
-        <v>0.1572848445074158</v>
+        <v>0.1387744692506736</v>
       </c>
       <c r="N7">
-        <v>1.010447520708786</v>
+        <v>1.933823639245796</v>
       </c>
       <c r="O7">
-        <v>1.487600942130726</v>
+        <v>3.428568989530419</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.827648538583901</v>
+        <v>0.4557954710687682</v>
       </c>
       <c r="C8">
-        <v>0.08607316356230399</v>
+        <v>0.1111806673481865</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.05003681560768314</v>
+        <v>0.1119145909403709</v>
       </c>
       <c r="F8">
-        <v>1.390742831773508</v>
+        <v>0.4248636149813336</v>
       </c>
       <c r="G8">
-        <v>0.0008198916189715949</v>
+        <v>0.002468951209410298</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.3672943514436291</v>
+        <v>0.8912204323822515</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.709390843485906</v>
+        <v>0.2559109682901664</v>
       </c>
       <c r="L8">
-        <v>0.1537372212962538</v>
+        <v>0.2083000755116231</v>
       </c>
       <c r="M8">
-        <v>0.1874978613739167</v>
+        <v>0.1466159736198094</v>
       </c>
       <c r="N8">
-        <v>0.9598613020791369</v>
+        <v>1.91121461274502</v>
       </c>
       <c r="O8">
-        <v>1.467715752215156</v>
+        <v>3.393233473945202</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.108199058451135</v>
+        <v>0.5357191041066471</v>
       </c>
       <c r="C9">
-        <v>0.09472004871427941</v>
+        <v>0.1140656363810209</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.05343354311128756</v>
+        <v>0.1113816881046112</v>
       </c>
       <c r="F9">
-        <v>1.895061171842798</v>
+        <v>0.5661985755041457</v>
       </c>
       <c r="G9">
-        <v>0.0008126245766011411</v>
+        <v>0.002464275371056057</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.3506072959051139</v>
+        <v>0.8739775801901217</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.950364598036316</v>
+        <v>0.3283593075703095</v>
       </c>
       <c r="L9">
-        <v>0.1897139618411003</v>
+        <v>0.2153760279264318</v>
       </c>
       <c r="M9">
-        <v>0.2475188416085707</v>
+        <v>0.1624454345336055</v>
       </c>
       <c r="N9">
-        <v>0.8692253547376616</v>
+        <v>1.871381791131057</v>
       </c>
       <c r="O9">
-        <v>1.451548532276533</v>
+        <v>3.336365498198077</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.315907044202049</v>
+        <v>0.5949916297522577</v>
       </c>
       <c r="C10">
-        <v>0.1010936166638032</v>
+        <v>0.1161518109552517</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.05626540102848487</v>
+        <v>0.1111949484317645</v>
       </c>
       <c r="F10">
-        <v>2.275587181990815</v>
+        <v>0.6702781546542269</v>
       </c>
       <c r="G10">
-        <v>0.0008075743552682659</v>
+        <v>0.00246115938351985</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.34185811642703</v>
+        <v>0.8631192466017303</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.128218705138721</v>
+        <v>0.3815835927494788</v>
       </c>
       <c r="L10">
-        <v>0.217114049572416</v>
+        <v>0.2210483633700875</v>
       </c>
       <c r="M10">
-        <v>0.2922428339374292</v>
+        <v>0.1743457897000908</v>
       </c>
       <c r="N10">
-        <v>0.8081861516933841</v>
+        <v>1.844855194741289</v>
       </c>
       <c r="O10">
-        <v>1.455178716198915</v>
+        <v>3.302148781571944</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.410882499545153</v>
+        <v>0.6220712578676455</v>
       </c>
       <c r="C11">
-        <v>0.1040025959984163</v>
+        <v>0.11709351057916</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.05763349875262236</v>
+        <v>0.1111542071838691</v>
       </c>
       <c r="F11">
-        <v>2.451628164639231</v>
+        <v>0.7176906081379002</v>
       </c>
       <c r="G11">
-        <v>0.0008053359670281483</v>
+        <v>0.002459810527859002</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.3387127982414597</v>
+        <v>0.8585718016773782</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.209421429105817</v>
+        <v>0.4057924332531115</v>
       </c>
       <c r="L11">
-        <v>0.2298247113614025</v>
+        <v>0.2237310317277093</v>
       </c>
       <c r="M11">
-        <v>0.3127616906610626</v>
+        <v>0.179817249520255</v>
       </c>
       <c r="N11">
-        <v>0.7817003946715921</v>
+        <v>1.833380769016955</v>
       </c>
       <c r="O11">
-        <v>1.46057083329282</v>
+        <v>3.288223122266032</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.44692934390855</v>
+        <v>0.6323417714075106</v>
       </c>
       <c r="C12">
-        <v>0.1051059753799493</v>
+        <v>0.1174490435593967</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.05816363633220689</v>
+        <v>0.1111451139288349</v>
       </c>
       <c r="F12">
-        <v>2.518780942186339</v>
+        <v>0.7356546913071611</v>
       </c>
       <c r="G12">
-        <v>0.0008044965183865993</v>
+        <v>0.002459309569820739</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.3376482216004959</v>
+        <v>0.8569061293934048</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.240223352149542</v>
+        <v>0.4149588238311708</v>
       </c>
       <c r="L12">
-        <v>0.2346763912562011</v>
+        <v>0.2247615249433892</v>
       </c>
       <c r="M12">
-        <v>0.3205597861813558</v>
+        <v>0.1818973621287014</v>
       </c>
       <c r="N12">
-        <v>0.7718621397173742</v>
+        <v>1.829120845778242</v>
       </c>
       <c r="O12">
-        <v>1.463183701427994</v>
+        <v>3.283185460619194</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.43916218563848</v>
+        <v>0.6301291295993394</v>
       </c>
       <c r="C13">
-        <v>0.1048682550416942</v>
+        <v>0.1173725209482441</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.05804891534288714</v>
+        <v>0.1111467909493769</v>
       </c>
       <c r="F13">
-        <v>2.504295469236112</v>
+        <v>0.7317853510981394</v>
       </c>
       <c r="G13">
-        <v>0.0008046769498235165</v>
+        <v>0.002459417023776149</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.337871764859198</v>
+        <v>0.8572623562098585</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.233587123841204</v>
+        <v>0.4129847290965358</v>
       </c>
       <c r="L13">
-        <v>0.2336297360431558</v>
+        <v>0.2245389406983804</v>
       </c>
       <c r="M13">
-        <v>0.3188790282089542</v>
+        <v>0.1814490106689846</v>
       </c>
       <c r="N13">
-        <v>0.7739723575756194</v>
+        <v>1.830034507956018</v>
       </c>
       <c r="O13">
-        <v>1.462595030390048</v>
+        <v>3.284259930751176</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.413846388983728</v>
+        <v>0.6229159014595211</v>
       </c>
       <c r="C14">
-        <v>0.1040933327693168</v>
+        <v>0.11712278199672</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.05767686816509254</v>
+        <v>0.1111533322504812</v>
       </c>
       <c r="F14">
-        <v>2.457142640142251</v>
+        <v>0.7191683204515869</v>
       </c>
       <c r="G14">
-        <v>0.0008052667428980538</v>
+        <v>0.002459769117274402</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.338622641574041</v>
+        <v>0.8584336367331922</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.211954417748416</v>
+        <v>0.4065465801718915</v>
       </c>
       <c r="L14">
-        <v>0.2302230738817457</v>
+        <v>0.2238155184064539</v>
       </c>
       <c r="M14">
-        <v>0.313402664205249</v>
+        <v>0.1799882183118555</v>
       </c>
       <c r="N14">
-        <v>0.7808871190484759</v>
+        <v>1.833028595344409</v>
       </c>
       <c r="O14">
-        <v>1.460774155416061</v>
+        <v>3.287803947955553</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.398350727447422</v>
+        <v>0.6184996606762354</v>
       </c>
       <c r="C15">
-        <v>0.1036189198920852</v>
+        <v>0.1169696700650036</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.0574505680603874</v>
+        <v>0.1111581632689926</v>
       </c>
       <c r="F15">
-        <v>2.428326063099846</v>
+        <v>0.7114413442032514</v>
       </c>
       <c r="G15">
-        <v>0.0008056290642837026</v>
+        <v>0.002459986062578462</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.3390992455915267</v>
+        <v>0.8591584168909598</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.198710858219272</v>
+        <v>0.4026028860936037</v>
       </c>
       <c r="L15">
-        <v>0.2281414921552027</v>
+        <v>0.2233743034379643</v>
       </c>
       <c r="M15">
-        <v>0.3100519806150928</v>
+        <v>0.1790945031570175</v>
       </c>
       <c r="N15">
-        <v>0.7851477435059948</v>
+        <v>1.834873654071892</v>
       </c>
       <c r="O15">
-        <v>1.45973419258894</v>
+        <v>3.290005450693073</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.309710962992455</v>
+        <v>0.5932241943728513</v>
       </c>
       <c r="C16">
-        <v>0.1009037373246429</v>
+        <v>0.1160901201015605</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.05617764900235578</v>
+        <v>0.111198498620638</v>
       </c>
       <c r="F16">
-        <v>2.26414724522013</v>
+        <v>0.6671810134426437</v>
       </c>
       <c r="G16">
-        <v>0.0008077218006147387</v>
+        <v>0.002461248911340899</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.3420810104635805</v>
+        <v>0.86342431943077</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.122918682198417</v>
+        <v>0.3800013803185038</v>
       </c>
       <c r="L16">
-        <v>0.2162885868245468</v>
+        <v>0.2208750958601371</v>
       </c>
       <c r="M16">
-        <v>0.2909056317583065</v>
+        <v>0.1739893705944695</v>
       </c>
       <c r="N16">
-        <v>0.8099434369203422</v>
+        <v>1.845616998541832</v>
       </c>
       <c r="O16">
-        <v>1.45490438430771</v>
+        <v>3.303091842229023</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.255466297262842</v>
+        <v>0.5777478132291094</v>
       </c>
       <c r="C17">
-        <v>0.09924081663043438</v>
+        <v>0.1155486600153779</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.05541761677374346</v>
+        <v>0.1112345497169329</v>
       </c>
       <c r="F17">
-        <v>2.1642275708721</v>
+        <v>0.6400460337125793</v>
       </c>
       <c r="G17">
-        <v>0.0008090205241405024</v>
+        <v>0.00246204117333308</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.3441284961211863</v>
+        <v>0.8661417069119501</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.076505108032705</v>
+        <v>0.3661349120720274</v>
       </c>
       <c r="L17">
-        <v>0.20908237142676</v>
+        <v>0.2193680527136905</v>
       </c>
       <c r="M17">
-        <v>0.2792065786429632</v>
+        <v>0.1708722740778086</v>
       </c>
       <c r="N17">
-        <v>0.8254878703948236</v>
+        <v>1.852359463363253</v>
       </c>
       <c r="O17">
-        <v>1.452922461307097</v>
+        <v>3.31153981178916</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.224311403651143</v>
+        <v>0.5688571911409213</v>
       </c>
       <c r="C18">
-        <v>0.09828522537335971</v>
+        <v>0.1152365392894126</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.05498794751203917</v>
+        <v>0.1112594477205615</v>
       </c>
       <c r="F18">
-        <v>2.107028586650728</v>
+        <v>0.6244449056556647</v>
       </c>
       <c r="G18">
-        <v>0.0008097730862161822</v>
+        <v>0.002462503322948637</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.3453843162554229</v>
+        <v>0.8677415812832621</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.049836492212449</v>
+        <v>0.3581590204490226</v>
       </c>
       <c r="L18">
-        <v>0.2049605315270355</v>
+        <v>0.2185108748916775</v>
       </c>
       <c r="M18">
-        <v>0.2724937457297685</v>
+        <v>0.169084863528326</v>
       </c>
       <c r="N18">
-        <v>0.8345487706240604</v>
+        <v>1.856293336047894</v>
       </c>
       <c r="O18">
-        <v>1.452132512031881</v>
+        <v>3.316553202593781</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.213770317107418</v>
+        <v>0.5658488860737805</v>
       </c>
       <c r="C19">
-        <v>0.09796181668254178</v>
+        <v>0.1151307430599502</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.0548437365059069</v>
+        <v>0.1112685933304025</v>
       </c>
       <c r="F19">
-        <v>2.087706772594743</v>
+        <v>0.619163680173358</v>
       </c>
       <c r="G19">
-        <v>0.0008100288565285885</v>
+        <v>0.002462660909914741</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.3458227488987298</v>
+        <v>0.8682896107021953</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.04081135310372</v>
+        <v>0.3554584907234357</v>
       </c>
       <c r="L19">
-        <v>0.2035688058081178</v>
+        <v>0.2182223063609143</v>
       </c>
       <c r="M19">
-        <v>0.2702235796456876</v>
+        <v>0.1684806192264432</v>
       </c>
       <c r="N19">
-        <v>0.8376370629816421</v>
+        <v>1.857634859886545</v>
       </c>
       <c r="O19">
-        <v>1.451924185813155</v>
+        <v>3.318277162141356</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.261235975137424</v>
+        <v>0.5793941685874131</v>
       </c>
       <c r="C20">
-        <v>0.09941774364250477</v>
+        <v>0.1156063706112604</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.0554977451014409</v>
+        <v>0.1112302813894832</v>
       </c>
       <c r="F20">
-        <v>2.174835551210137</v>
+        <v>0.642933953830422</v>
       </c>
       <c r="G20">
-        <v>0.0008088816984223867</v>
+        <v>0.002461956167141936</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.3439024028932707</v>
+        <v>0.8658486170836071</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.081443024746676</v>
+        <v>0.3676110525559011</v>
       </c>
       <c r="L20">
-        <v>0.2098470852187546</v>
+        <v>0.2195274836090277</v>
       </c>
       <c r="M20">
-        <v>0.2804502693982229</v>
+        <v>0.1712035301558998</v>
       </c>
       <c r="N20">
-        <v>0.8238206535105128</v>
+        <v>1.851635943136252</v>
       </c>
       <c r="O20">
-        <v>1.453096983366066</v>
+        <v>3.310624537920432</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.421279939143091</v>
+        <v>0.6250341712849945</v>
       </c>
       <c r="C21">
-        <v>0.1043208934306818</v>
+        <v>0.1171961655057743</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.05778581509747482</v>
+        <v>0.1111512391722229</v>
       </c>
       <c r="F21">
-        <v>2.470978708896922</v>
+        <v>0.7228739723491628</v>
       </c>
       <c r="G21">
-        <v>0.0008050932868475802</v>
+        <v>0.002459665432428091</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.3383986047423129</v>
+        <v>0.8580880742805874</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.218306970608495</v>
+        <v>0.4084376510847108</v>
       </c>
       <c r="L21">
-        <v>0.2312226252353042</v>
+        <v>0.2240276088311219</v>
       </c>
       <c r="M21">
-        <v>0.3150104183238298</v>
+        <v>0.1804170672969647</v>
       </c>
       <c r="N21">
-        <v>0.7788508350025758</v>
+        <v>1.832146847424536</v>
       </c>
       <c r="O21">
-        <v>1.461293220441291</v>
+        <v>3.286756588637445</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.526360045153098</v>
+        <v>0.6549557682792795</v>
       </c>
       <c r="C22">
-        <v>0.107536174735003</v>
+        <v>0.1182289541349633</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.05935183975062941</v>
+        <v>0.1111364928346035</v>
       </c>
       <c r="F22">
-        <v>2.667416158031983</v>
+        <v>0.7751780083420101</v>
       </c>
       <c r="G22">
-        <v>0.0008026648709568732</v>
+        <v>0.00245822554854768</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.3355420894559344</v>
+        <v>0.8533445262265751</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.308064780458665</v>
+        <v>0.4351142874242271</v>
       </c>
       <c r="L22">
-        <v>0.2454182983063049</v>
+        <v>0.2270539065111024</v>
       </c>
       <c r="M22">
-        <v>0.3377625392767456</v>
+        <v>0.1864863158866967</v>
       </c>
       <c r="N22">
-        <v>0.7505792376216505</v>
+        <v>1.819906152930223</v>
       </c>
       <c r="O22">
-        <v>1.469994919972521</v>
+        <v>3.272531199042106</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.470228690406515</v>
+        <v>0.638977741527043</v>
       </c>
       <c r="C23">
-        <v>0.1058189791894435</v>
+        <v>0.1176783113855535</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.05850935859687212</v>
+        <v>0.1111409931620244</v>
       </c>
       <c r="F23">
-        <v>2.562285531758803</v>
+        <v>0.7472568307830727</v>
       </c>
       <c r="G23">
-        <v>0.0008039567170464191</v>
+        <v>0.002458988818240086</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.3369966740129655</v>
+        <v>0.8558462076301296</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.260127680944493</v>
+        <v>0.4208771763198911</v>
       </c>
       <c r="L23">
-        <v>0.2378201193558596</v>
+        <v>0.2254309462738888</v>
       </c>
       <c r="M23">
-        <v>0.3256031330406373</v>
+        <v>0.1832427284129423</v>
       </c>
       <c r="N23">
-        <v>0.765563506451258</v>
+        <v>1.826393816455234</v>
       </c>
       <c r="O23">
-        <v>1.465033133812454</v>
+        <v>3.279997897995145</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.258627407801953</v>
+        <v>0.5786498296134539</v>
       </c>
       <c r="C24">
-        <v>0.09933775358948083</v>
+        <v>0.1155802822284144</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.05546149644212051</v>
+        <v>0.1112321981043163</v>
       </c>
       <c r="F24">
-        <v>2.170038921572868</v>
+        <v>0.6416283278902171</v>
       </c>
       <c r="G24">
-        <v>0.0008089444431390337</v>
+        <v>0.002461994577659151</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.3440043750132062</v>
+        <v>0.8659810058340121</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.079210546082351</v>
+        <v>0.3669437014719108</v>
       </c>
       <c r="L24">
-        <v>0.2095012925888966</v>
+        <v>0.2194553761094937</v>
       </c>
       <c r="M24">
-        <v>0.2798879562075598</v>
+        <v>0.1710537547890638</v>
       </c>
       <c r="N24">
-        <v>0.824574015944652</v>
+        <v>1.851962867395528</v>
       </c>
       <c r="O24">
-        <v>1.453016995855066</v>
+        <v>3.311037845616909</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.032068336224825</v>
+        <v>0.5139987806832096</v>
       </c>
       <c r="C25">
-        <v>0.09237877079255696</v>
+        <v>0.1132910054899412</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.05245778411503466</v>
+        <v>0.1114898011664085</v>
       </c>
       <c r="F25">
-        <v>1.757113814925063</v>
+        <v>0.5279251897347166</v>
       </c>
       <c r="G25">
-        <v>0.0008145385939429755</v>
+        <v>0.002465484006342347</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.3545285343871676</v>
+        <v>0.8783241236501809</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.8850695293515116</v>
+        <v>0.3087594336315931</v>
       </c>
       <c r="L25">
-        <v>0.1798227412939681</v>
+        <v>0.2133783761595254</v>
       </c>
       <c r="M25">
-        <v>0.2311833074979006</v>
+        <v>0.1581152700910806</v>
       </c>
       <c r="N25">
-        <v>0.8927949921681808</v>
+        <v>1.881676218955295</v>
       </c>
       <c r="O25">
-        <v>1.453319307606918</v>
+        <v>3.350420697966271</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_107/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_2_107/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.4667726049514727</v>
+        <v>0.8662755864423559</v>
       </c>
       <c r="C2">
-        <v>0.1115831045428308</v>
+        <v>0.08726715682788466</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>0.1118171829289238</v>
+        <v>0.05046959729980749</v>
       </c>
       <c r="F2">
-        <v>0.4443680307746263</v>
+        <v>1.45952168114772</v>
       </c>
       <c r="G2">
-        <v>0.00246826798140105</v>
+        <v>0.0008188528717505024</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.8886284222073222</v>
+        <v>0.364607693586251</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.2659201194302483</v>
+        <v>0.7426316165154248</v>
       </c>
       <c r="L2">
-        <v>0.2092227225229806</v>
+        <v>0.1586083247130432</v>
       </c>
       <c r="M2">
-        <v>0.1487714340921897</v>
+        <v>0.1957309638706626</v>
       </c>
       <c r="N2">
-        <v>1.905393724496388</v>
+        <v>0.9467228679452688</v>
       </c>
       <c r="O2">
-        <v>3.38450055242663</v>
+        <v>1.463816654473746</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.4350089752580857</v>
+        <v>0.7543579060034915</v>
       </c>
       <c r="C3">
-        <v>0.1104118661123081</v>
+        <v>0.08380382864693559</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>0.1121253597160941</v>
+        <v>0.04925187487788207</v>
       </c>
       <c r="F3">
-        <v>0.387822817061874</v>
+        <v>1.260820407314654</v>
       </c>
       <c r="G3">
-        <v>0.002470289708980686</v>
+        <v>0.000821903797272617</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.8963716224442386</v>
+        <v>0.3727897498183417</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.2368935610889338</v>
+        <v>0.6462533436910007</v>
       </c>
       <c r="L3">
-        <v>0.2066062862443445</v>
+        <v>0.1445787026365721</v>
       </c>
       <c r="M3">
-        <v>0.1425545601854736</v>
+        <v>0.1719076994438531</v>
       </c>
       <c r="N3">
-        <v>1.922617475217256</v>
+        <v>0.9854683771041</v>
       </c>
       <c r="O3">
-        <v>3.410770926026757</v>
+        <v>1.476815160886147</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.4156283381067283</v>
+        <v>0.6857989423025401</v>
       </c>
       <c r="C4">
-        <v>0.1096859893203046</v>
+        <v>0.08167576175684843</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0.1123572962055626</v>
+        <v>0.04856514671236845</v>
       </c>
       <c r="F4">
-        <v>0.3531389305168915</v>
+        <v>1.139972825279813</v>
       </c>
       <c r="G4">
-        <v>0.002471597993802521</v>
+        <v>0.0008238414043869526</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.9015012131756563</v>
+        <v>0.3784482091751542</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2190762765505951</v>
+        <v>0.587103323789961</v>
       </c>
       <c r="L4">
-        <v>0.2050987868208054</v>
+        <v>0.1361204602715063</v>
       </c>
       <c r="M4">
-        <v>0.1387949932688777</v>
+        <v>0.1573645872582006</v>
       </c>
       <c r="N4">
-        <v>1.933761047539985</v>
+        <v>1.010308552022863</v>
       </c>
       <c r="O4">
-        <v>3.428468009725052</v>
+        <v>1.487535711636085</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.407761959234449</v>
+        <v>0.6578927927224925</v>
       </c>
       <c r="C5">
-        <v>0.1093885108958403</v>
+        <v>0.08080790214193456</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0.1124625768779364</v>
+        <v>0.04830020638814503</v>
       </c>
       <c r="F5">
-        <v>0.3390132514313251</v>
+        <v>1.090973950927989</v>
       </c>
       <c r="G5">
-        <v>0.00247214801053246</v>
+        <v>0.0008246473967257929</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.9036859761152023</v>
+        <v>0.3809091131151092</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2118173505133001</v>
+        <v>0.5629994566761525</v>
       </c>
       <c r="L5">
-        <v>0.204509446300122</v>
+        <v>0.1327107610124898</v>
       </c>
       <c r="M5">
-        <v>0.137277558966133</v>
+        <v>0.1514572796239015</v>
       </c>
       <c r="N5">
-        <v>1.938445086732903</v>
+        <v>1.020690280469482</v>
       </c>
       <c r="O5">
-        <v>3.436073944384631</v>
+        <v>1.49257014517211</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4064576670137683</v>
+        <v>0.6532607220171371</v>
       </c>
       <c r="C6">
-        <v>0.1093390139411667</v>
+        <v>0.08066374788316466</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0.1124807095097449</v>
+        <v>0.04825710157333241</v>
       </c>
       <c r="F6">
-        <v>0.336668177824194</v>
+        <v>1.082851457025455</v>
       </c>
       <c r="G6">
-        <v>0.002472240361792266</v>
+        <v>0.0008247822282549905</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.9040544583428556</v>
+        <v>0.3813269785307583</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2106121316206782</v>
+        <v>0.558996860935693</v>
       </c>
       <c r="L6">
-        <v>0.2044130977775112</v>
+        <v>0.1321467636081053</v>
       </c>
       <c r="M6">
-        <v>0.1370264770060494</v>
+        <v>0.1504774712403929</v>
       </c>
       <c r="N6">
-        <v>1.939231503800967</v>
+        <v>1.022429670254832</v>
       </c>
       <c r="O6">
-        <v>3.437360720498503</v>
+        <v>1.493445659136725</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.415522121460242</v>
+        <v>0.6854224698893461</v>
       </c>
       <c r="C7">
-        <v>0.1096819841946512</v>
+        <v>0.08166406048209751</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>0.112358672440088</v>
+        <v>0.04856151382185558</v>
       </c>
       <c r="F7">
-        <v>0.3529483938344953</v>
+        <v>1.139311062524612</v>
       </c>
       <c r="G7">
-        <v>0.002471605343457705</v>
+        <v>0.000823852207523238</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.9015302953013737</v>
+        <v>0.3784807759294608</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2189783723788281</v>
+        <v>0.5867782578859106</v>
       </c>
       <c r="L7">
-        <v>0.2050907375247846</v>
+        <v>0.1360743283871528</v>
       </c>
       <c r="M7">
-        <v>0.1387744692506736</v>
+        <v>0.1572848445074122</v>
       </c>
       <c r="N7">
-        <v>1.933823639245796</v>
+        <v>1.010447520708796</v>
       </c>
       <c r="O7">
-        <v>3.428568989530419</v>
+        <v>1.48760094213074</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.4557954710687682</v>
+        <v>0.8276485385840431</v>
       </c>
       <c r="C8">
-        <v>0.1111806673481865</v>
+        <v>0.08607316356259531</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0.1119145909403709</v>
+        <v>0.05003681560769735</v>
       </c>
       <c r="F8">
-        <v>0.4248636149813336</v>
+        <v>1.39074283177348</v>
       </c>
       <c r="G8">
-        <v>0.002468951209410298</v>
+        <v>0.0008198916189542716</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.8912204323822515</v>
+        <v>0.3672943514436291</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.2559109682901664</v>
+        <v>0.7093908434858776</v>
       </c>
       <c r="L8">
-        <v>0.2083000755116231</v>
+        <v>0.1537372212961543</v>
       </c>
       <c r="M8">
-        <v>0.1466159736198094</v>
+        <v>0.1874978613739131</v>
       </c>
       <c r="N8">
-        <v>1.91121461274502</v>
+        <v>0.9598613020791351</v>
       </c>
       <c r="O8">
-        <v>3.393233473945202</v>
+        <v>1.467715752215142</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.5357191041066471</v>
+        <v>1.108199058451191</v>
       </c>
       <c r="C9">
-        <v>0.1140656363810209</v>
+        <v>0.09472004871450679</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>0.1113816881046112</v>
+        <v>0.05343354311129644</v>
       </c>
       <c r="F9">
-        <v>0.5661985755041457</v>
+        <v>1.895061171842812</v>
       </c>
       <c r="G9">
-        <v>0.002464275371056057</v>
+        <v>0.0008126245765412545</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.8739775801901217</v>
+        <v>0.3506072959050819</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.3283593075703095</v>
+        <v>0.9503645980364865</v>
       </c>
       <c r="L9">
-        <v>0.2153760279264318</v>
+        <v>0.1897139618410932</v>
       </c>
       <c r="M9">
-        <v>0.1624454345336055</v>
+        <v>0.2475188416085778</v>
       </c>
       <c r="N9">
-        <v>1.871381791131057</v>
+        <v>0.8692253547375746</v>
       </c>
       <c r="O9">
-        <v>3.336365498198077</v>
+        <v>1.451548532276519</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.5949916297522577</v>
+        <v>1.315907044202078</v>
       </c>
       <c r="C10">
-        <v>0.1161518109552517</v>
+        <v>0.1010936166639738</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>0.1111949484317645</v>
+        <v>0.05626540102848487</v>
       </c>
       <c r="F10">
-        <v>0.6702781546542269</v>
+        <v>2.275587181990787</v>
       </c>
       <c r="G10">
-        <v>0.00246115938351985</v>
+        <v>0.0008075743552684112</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.8631192466017303</v>
+        <v>0.3418581164270265</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.3815835927494788</v>
+        <v>1.128218705138664</v>
       </c>
       <c r="L10">
-        <v>0.2210483633700875</v>
+        <v>0.2171140495725012</v>
       </c>
       <c r="M10">
-        <v>0.1743457897000908</v>
+        <v>0.292242833937415</v>
       </c>
       <c r="N10">
-        <v>1.844855194741289</v>
+        <v>0.8081861516933735</v>
       </c>
       <c r="O10">
-        <v>3.302148781571944</v>
+        <v>1.45517871619883</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.6220712578676455</v>
+        <v>1.410882499545096</v>
       </c>
       <c r="C11">
-        <v>0.11709351057916</v>
+        <v>0.1040025959982529</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>0.1111542071838691</v>
+        <v>0.05763349875259038</v>
       </c>
       <c r="F11">
-        <v>0.7176906081379002</v>
+        <v>2.451628164639231</v>
       </c>
       <c r="G11">
-        <v>0.002459810527859002</v>
+        <v>0.0008053359669485175</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.8585718016773782</v>
+        <v>0.3387127982414384</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.4057924332531115</v>
+        <v>1.20942142910576</v>
       </c>
       <c r="L11">
-        <v>0.2237310317277093</v>
+        <v>0.2298247113613883</v>
       </c>
       <c r="M11">
-        <v>0.179817249520255</v>
+        <v>0.3127616906610484</v>
       </c>
       <c r="N11">
-        <v>1.833380769016955</v>
+        <v>0.7817003946716383</v>
       </c>
       <c r="O11">
-        <v>3.288223122266032</v>
+        <v>1.460570833292763</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.6323417714075106</v>
+        <v>1.446929343908721</v>
       </c>
       <c r="C12">
-        <v>0.1174490435593967</v>
+        <v>0.105105975379864</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>0.1111451139288349</v>
+        <v>0.05816363633220689</v>
       </c>
       <c r="F12">
-        <v>0.7356546913071611</v>
+        <v>2.518780942186368</v>
       </c>
       <c r="G12">
-        <v>0.002459309569820739</v>
+        <v>0.0008044965183864922</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.8569061293934048</v>
+        <v>0.3376482216004923</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.4149588238311708</v>
+        <v>1.240223352149599</v>
       </c>
       <c r="L12">
-        <v>0.2247615249433892</v>
+        <v>0.2346763912561443</v>
       </c>
       <c r="M12">
-        <v>0.1818973621287014</v>
+        <v>0.3205597861813487</v>
       </c>
       <c r="N12">
-        <v>1.829120845778242</v>
+        <v>0.77186213971736</v>
       </c>
       <c r="O12">
-        <v>3.283185460619194</v>
+        <v>1.463183701427994</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.6301291295993394</v>
+        <v>1.439162185638452</v>
       </c>
       <c r="C13">
-        <v>0.1173725209482441</v>
+        <v>0.1048682550415307</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0.1111467909493769</v>
+        <v>0.05804891534288714</v>
       </c>
       <c r="F13">
-        <v>0.7317853510981394</v>
+        <v>2.504295469236112</v>
       </c>
       <c r="G13">
-        <v>0.002459417023776149</v>
+        <v>0.0008046769497266348</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.8572623562098585</v>
+        <v>0.3378717648592158</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.4129847290965358</v>
+        <v>1.233587123841261</v>
       </c>
       <c r="L13">
-        <v>0.2245389406983804</v>
+        <v>0.2336297360430848</v>
       </c>
       <c r="M13">
-        <v>0.1814490106689846</v>
+        <v>0.3188790282089613</v>
       </c>
       <c r="N13">
-        <v>1.830034507956018</v>
+        <v>0.773972357575623</v>
       </c>
       <c r="O13">
-        <v>3.284259930751176</v>
+        <v>1.462595030390048</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.6229159014595211</v>
+        <v>1.413846388983643</v>
       </c>
       <c r="C14">
-        <v>0.11712278199672</v>
+        <v>0.1040933327693239</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0.1111533322504812</v>
+        <v>0.05767686816506057</v>
       </c>
       <c r="F14">
-        <v>0.7191683204515869</v>
+        <v>2.457142640142251</v>
       </c>
       <c r="G14">
-        <v>0.002459769117274402</v>
+        <v>0.0008052667428782521</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.8584336367331922</v>
+        <v>0.3386226415740374</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.4065465801718915</v>
+        <v>1.211954417748302</v>
       </c>
       <c r="L14">
-        <v>0.2238155184064539</v>
+        <v>0.2302230738815751</v>
       </c>
       <c r="M14">
-        <v>0.1799882183118555</v>
+        <v>0.3134026642052277</v>
       </c>
       <c r="N14">
-        <v>1.833028595344409</v>
+        <v>0.7808871190484759</v>
       </c>
       <c r="O14">
-        <v>3.287803947955553</v>
+        <v>1.460774155415919</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.6184996606762354</v>
+        <v>1.398350727447507</v>
       </c>
       <c r="C15">
-        <v>0.1169696700650036</v>
+        <v>0.1036189198920709</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0.1111581632689926</v>
+        <v>0.05745056806036963</v>
       </c>
       <c r="F15">
-        <v>0.7114413442032514</v>
+        <v>2.428326063099846</v>
       </c>
       <c r="G15">
-        <v>0.002459986062578462</v>
+        <v>0.0008056290642831256</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.8591584168909598</v>
+        <v>0.3390992455915267</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.4026028860936037</v>
+        <v>1.198710858219414</v>
       </c>
       <c r="L15">
-        <v>0.2233743034379643</v>
+        <v>0.2281414921551743</v>
       </c>
       <c r="M15">
-        <v>0.1790945031570175</v>
+        <v>0.3100519806150785</v>
       </c>
       <c r="N15">
-        <v>1.834873654071892</v>
+        <v>0.7851477435059309</v>
       </c>
       <c r="O15">
-        <v>3.290005450693073</v>
+        <v>1.459734192588911</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.5932241943728513</v>
+        <v>1.309710962992568</v>
       </c>
       <c r="C16">
-        <v>0.1160901201015605</v>
+        <v>0.1009037373245647</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0.111198498620638</v>
+        <v>0.05617764900235578</v>
       </c>
       <c r="F16">
-        <v>0.6671810134426437</v>
+        <v>2.26414724522013</v>
       </c>
       <c r="G16">
-        <v>0.002461248911340899</v>
+        <v>0.0008077218006532635</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.86342431943077</v>
+        <v>0.3420810104635663</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.3800013803185038</v>
+        <v>1.122918682198389</v>
       </c>
       <c r="L16">
-        <v>0.2208750958601371</v>
+        <v>0.2162885868245468</v>
       </c>
       <c r="M16">
-        <v>0.1739893705944695</v>
+        <v>0.2909056317582994</v>
       </c>
       <c r="N16">
-        <v>1.845616998541832</v>
+        <v>0.8099434369203955</v>
       </c>
       <c r="O16">
-        <v>3.303091842229023</v>
+        <v>1.454904384307724</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.5777478132291094</v>
+        <v>1.255466297262956</v>
       </c>
       <c r="C17">
-        <v>0.1155486600153779</v>
+        <v>0.09924081663035622</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>0.1112345497169329</v>
+        <v>0.05541761677374524</v>
       </c>
       <c r="F17">
-        <v>0.6400460337125793</v>
+        <v>2.164227570872086</v>
       </c>
       <c r="G17">
-        <v>0.00246204117333308</v>
+        <v>0.0008090205241403254</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.8661417069119501</v>
+        <v>0.3441284961211863</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.3661349120720274</v>
+        <v>1.076505108032592</v>
       </c>
       <c r="L17">
-        <v>0.2193680527136905</v>
+        <v>0.2090823714266463</v>
       </c>
       <c r="M17">
-        <v>0.1708722740778086</v>
+        <v>0.2792065786429632</v>
       </c>
       <c r="N17">
-        <v>1.852359463363253</v>
+        <v>0.8254878703947703</v>
       </c>
       <c r="O17">
-        <v>3.31153981178916</v>
+        <v>1.452922461307097</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.5688571911409213</v>
+        <v>1.224311403651029</v>
       </c>
       <c r="C18">
-        <v>0.1152365392894126</v>
+        <v>0.0982852253733455</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0.1112594477205615</v>
+        <v>0.05498794751208003</v>
       </c>
       <c r="F18">
-        <v>0.6244449056556647</v>
+        <v>2.107028586650728</v>
       </c>
       <c r="G18">
-        <v>0.002462503322948637</v>
+        <v>0.0008097730862359035</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.8677415812832621</v>
+        <v>0.3453843162554122</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.3581590204490226</v>
+        <v>1.049836492212478</v>
       </c>
       <c r="L18">
-        <v>0.2185108748916775</v>
+        <v>0.2049605315271208</v>
       </c>
       <c r="M18">
-        <v>0.169084863528326</v>
+        <v>0.2724937457297827</v>
       </c>
       <c r="N18">
-        <v>1.856293336047894</v>
+        <v>0.8345487706239965</v>
       </c>
       <c r="O18">
-        <v>3.316553202593781</v>
+        <v>1.452132512031866</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.5658488860737805</v>
+        <v>1.213770317107475</v>
       </c>
       <c r="C19">
-        <v>0.1151307430599502</v>
+        <v>0.09796181668278336</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0.1112685933304025</v>
+        <v>0.0548437365059069</v>
       </c>
       <c r="F19">
-        <v>0.619163680173358</v>
+        <v>2.087706772594743</v>
       </c>
       <c r="G19">
-        <v>0.002462660909914741</v>
+        <v>0.0008100288566061681</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.8682896107021953</v>
+        <v>0.3458227488987227</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.3554584907234357</v>
+        <v>1.040811353103663</v>
       </c>
       <c r="L19">
-        <v>0.2182223063609143</v>
+        <v>0.2035688058080751</v>
       </c>
       <c r="M19">
-        <v>0.1684806192264432</v>
+        <v>0.270223579645684</v>
       </c>
       <c r="N19">
-        <v>1.857634859886545</v>
+        <v>0.8376370629816243</v>
       </c>
       <c r="O19">
-        <v>3.318277162141356</v>
+        <v>1.451924185813056</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.5793941685874131</v>
+        <v>1.261235975137339</v>
       </c>
       <c r="C20">
-        <v>0.1156063706112604</v>
+        <v>0.09941774364257583</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>0.1112302813894832</v>
+        <v>0.0554977451014409</v>
       </c>
       <c r="F20">
-        <v>0.642933953830422</v>
+        <v>2.174835551210137</v>
       </c>
       <c r="G20">
-        <v>0.002461956167141936</v>
+        <v>0.0008088816983831496</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.8658486170836071</v>
+        <v>0.3439024028932707</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.3676110525559011</v>
+        <v>1.081443024746648</v>
       </c>
       <c r="L20">
-        <v>0.2195274836090277</v>
+        <v>0.2098470852188541</v>
       </c>
       <c r="M20">
-        <v>0.1712035301558998</v>
+        <v>0.2804502693982158</v>
       </c>
       <c r="N20">
-        <v>1.851635943136252</v>
+        <v>0.8238206535105235</v>
       </c>
       <c r="O20">
-        <v>3.310624537920432</v>
+        <v>1.453096983366066</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.6250341712849945</v>
+        <v>1.421279939143119</v>
       </c>
       <c r="C21">
-        <v>0.1171961655057743</v>
+        <v>0.1043208934303621</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0.1111512391722229</v>
+        <v>0.05778581509745351</v>
       </c>
       <c r="F21">
-        <v>0.7228739723491628</v>
+        <v>2.470978708896922</v>
       </c>
       <c r="G21">
-        <v>0.002459665432428091</v>
+        <v>0.0008050932867882909</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.8580880742805874</v>
+        <v>0.3383986047423306</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.4084376510847108</v>
+        <v>1.21830697060858</v>
       </c>
       <c r="L21">
-        <v>0.2240276088311219</v>
+        <v>0.2312226252352332</v>
       </c>
       <c r="M21">
-        <v>0.1804170672969647</v>
+        <v>0.3150104183238156</v>
       </c>
       <c r="N21">
-        <v>1.832146847424536</v>
+        <v>0.7788508350025758</v>
       </c>
       <c r="O21">
-        <v>3.286756588637445</v>
+        <v>1.46129322044132</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.6549557682792795</v>
+        <v>1.526360045153069</v>
       </c>
       <c r="C22">
-        <v>0.1182289541349633</v>
+        <v>0.1075361747350101</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0.1111364928346035</v>
+        <v>0.05935183975062586</v>
       </c>
       <c r="F22">
-        <v>0.7751780083420101</v>
+        <v>2.667416158031969</v>
       </c>
       <c r="G22">
-        <v>0.00245822554854768</v>
+        <v>0.0008026648709566486</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.8533445262265751</v>
+        <v>0.3355420894559487</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.4351142874242271</v>
+        <v>1.308064780458636</v>
       </c>
       <c r="L22">
-        <v>0.2270539065111024</v>
+        <v>0.2454182983062339</v>
       </c>
       <c r="M22">
-        <v>0.1864863158866967</v>
+        <v>0.3377625392767527</v>
       </c>
       <c r="N22">
-        <v>1.819906152930223</v>
+        <v>0.750579237621583</v>
       </c>
       <c r="O22">
-        <v>3.272531199042106</v>
+        <v>1.469994919972493</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.638977741527043</v>
+        <v>1.470228690406344</v>
       </c>
       <c r="C23">
-        <v>0.1176783113855535</v>
+        <v>0.1058189791893511</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0.1111409931620244</v>
+        <v>0.05850935859687922</v>
       </c>
       <c r="F23">
-        <v>0.7472568307830727</v>
+        <v>2.562285531758775</v>
       </c>
       <c r="G23">
-        <v>0.002458988818240086</v>
+        <v>0.0008039567169879541</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.8558462076301296</v>
+        <v>0.3369966740129655</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.4208771763198911</v>
+        <v>1.260127680944493</v>
       </c>
       <c r="L23">
-        <v>0.2254309462738888</v>
+        <v>0.2378201193557743</v>
       </c>
       <c r="M23">
-        <v>0.1832427284129423</v>
+        <v>0.3256031330406373</v>
       </c>
       <c r="N23">
-        <v>1.826393816455234</v>
+        <v>0.7655635064512651</v>
       </c>
       <c r="O23">
-        <v>3.279997897995145</v>
+        <v>1.465033133812511</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.5786498296134539</v>
+        <v>1.258627407801953</v>
       </c>
       <c r="C24">
-        <v>0.1155802822284144</v>
+        <v>0.09933775358948083</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>0.1112321981043163</v>
+        <v>0.05546149644211695</v>
       </c>
       <c r="F24">
-        <v>0.6416283278902171</v>
+        <v>2.170038921572868</v>
       </c>
       <c r="G24">
-        <v>0.002461994577659151</v>
+        <v>0.0008089444431572323</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.8659810058340121</v>
+        <v>0.3440043750131814</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.3669437014719108</v>
+        <v>1.079210546082408</v>
       </c>
       <c r="L24">
-        <v>0.2194553761094937</v>
+        <v>0.2095012925889961</v>
       </c>
       <c r="M24">
-        <v>0.1710537547890638</v>
+        <v>0.279887956207574</v>
       </c>
       <c r="N24">
-        <v>1.851962867395528</v>
+        <v>0.82457401594462</v>
       </c>
       <c r="O24">
-        <v>3.311037845616909</v>
+        <v>1.453016995855023</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.5139987806832096</v>
+        <v>1.032068336224853</v>
       </c>
       <c r="C25">
-        <v>0.1132910054899412</v>
+        <v>0.09237877079279144</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0.1114898011664085</v>
+        <v>0.05245778411503466</v>
       </c>
       <c r="F25">
-        <v>0.5279251897347166</v>
+        <v>1.757113814925091</v>
       </c>
       <c r="G25">
-        <v>0.002465484006342347</v>
+        <v>0.0008145385938835364</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.8783241236501809</v>
+        <v>0.3545285343871711</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.3087594336315931</v>
+        <v>0.88506952935154</v>
       </c>
       <c r="L25">
-        <v>0.2133783761595254</v>
+        <v>0.1798227412938829</v>
       </c>
       <c r="M25">
-        <v>0.1581152700910806</v>
+        <v>0.23118330749789</v>
       </c>
       <c r="N25">
-        <v>1.881676218955295</v>
+        <v>0.8927949921681861</v>
       </c>
       <c r="O25">
-        <v>3.350420697966271</v>
+        <v>1.453319307606904</v>
       </c>
     </row>
   </sheetData>
